--- a/pITD-pion/expdata/2002.xlsx
+++ b/pITD-pion/expdata/2002.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pITD-pion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pITD-pion/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF199D5F-F75E-E64B-B014-81A9FC51481C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181C01B8-2DAE-8C46-AAAA-47B3B6591D3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="9060" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="5400" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>p [2pi/L]</t>
-  </si>
-  <si>
-    <t>z [a]</t>
-  </si>
-  <si>
     <t>z</t>
   </si>
   <si>
@@ -112,10 +106,16 @@
     <t>2+1</t>
   </si>
   <si>
-    <t>a [fm]</t>
-  </si>
-  <si>
-    <t>mpi [MeV]</t>
+    <t>mpi</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>ZoA</t>
   </si>
 </sst>
 </file>
@@ -959,7 +959,7 @@
   <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,10 +970,10 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -988,76 +988,76 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -1068,7 +1068,7 @@
         <v>0.127</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>24</v>
@@ -1097,7 +1097,7 @@
         <v>5.6571999999999997E-2</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M2">
         <v>9.9999999999999995E-7</v>
@@ -1162,7 +1162,7 @@
         <v>0.127</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>24</v>
@@ -1191,7 +1191,7 @@
         <v>0.10766000000000001</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M3">
         <v>1.9999999999999999E-6</v>
@@ -1256,7 +1256,7 @@
         <v>0.127</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>24</v>
@@ -1285,7 +1285,7 @@
         <v>0.108517</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M4">
         <v>9.9999999999999995E-7</v>
@@ -1350,7 +1350,7 @@
         <v>0.127</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>24</v>
@@ -1379,7 +1379,7 @@
         <v>0.116925</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M5">
         <v>9.9999999999999995E-7</v>
@@ -1444,7 +1444,7 @@
         <v>0.127</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>24</v>
@@ -1473,7 +1473,7 @@
         <v>0.215174</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6">
         <v>5.0000000000000004E-6</v>
@@ -1538,7 +1538,7 @@
         <v>0.127</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>24</v>
@@ -1567,7 +1567,7 @@
         <v>0.20711199999999999</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M7">
         <v>1.9999999999999999E-6</v>
@@ -1632,7 +1632,7 @@
         <v>0.127</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>24</v>
@@ -1661,7 +1661,7 @@
         <v>0.18024999999999999</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M8">
         <v>1.9999999999999999E-6</v>
@@ -1726,7 +1726,7 @@
         <v>0.127</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>24</v>
@@ -1755,7 +1755,7 @@
         <v>0.31660700000000003</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9">
         <v>7.9999999999999996E-6</v>
@@ -1820,7 +1820,7 @@
         <v>0.127</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>24</v>
@@ -1849,7 +1849,7 @@
         <v>0.279499</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M10">
         <v>1.9999999999999999E-6</v>
@@ -1914,7 +1914,7 @@
         <v>0.127</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>24</v>
@@ -1943,7 +1943,7 @@
         <v>0.245174</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M11">
         <v>3.0000000000000001E-6</v>
@@ -2008,7 +2008,7 @@
         <v>0.127</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>24</v>
@@ -2037,7 +2037,7 @@
         <v>0.38855699999999999</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12">
         <v>1.4E-5</v>
@@ -2102,7 +2102,7 @@
         <v>0.127</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>24</v>
@@ -2131,7 +2131,7 @@
         <v>0.30581199999999997</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M13">
         <v>1.9999999999999999E-6</v>
@@ -2196,7 +2196,7 @@
         <v>0.127</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>24</v>
@@ -2225,7 +2225,7 @@
         <v>0.31031700000000001</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M14">
         <v>3.9999999999999998E-6</v>
@@ -2290,7 +2290,7 @@
         <v>0.127</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>24</v>
@@ -2319,7 +2319,7 @@
         <v>0.44588100000000003</v>
       </c>
       <c r="L15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15">
         <v>1.9000000000000001E-5</v>
@@ -2384,7 +2384,7 @@
         <v>0.127</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>24</v>
@@ -2413,7 +2413,7 @@
         <v>0.143563</v>
       </c>
       <c r="L16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M16">
         <v>1.2E-5</v>
@@ -2478,7 +2478,7 @@
         <v>0.127</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>24</v>
@@ -2507,7 +2507,7 @@
         <v>0.373168</v>
       </c>
       <c r="L17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M17">
         <v>5.0000000000000004E-6</v>
@@ -2572,7 +2572,7 @@
         <v>0.127</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>24</v>
@@ -2601,7 +2601,7 @@
         <v>0.45810000000000001</v>
       </c>
       <c r="L18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18">
         <v>2.0000000000000002E-5</v>
@@ -2666,7 +2666,7 @@
         <v>0.127</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>24</v>
@@ -2695,7 +2695,7 @@
         <v>-0.166017</v>
       </c>
       <c r="L19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M19">
         <v>-1.9000000000000001E-5</v>

--- a/pITD-pion/expdata/2002.xlsx
+++ b/pITD-pion/expdata/2002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pITD-pion/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181C01B8-2DAE-8C46-AAAA-47B3B6591D3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD30BDF9-8075-B540-9C37-C807F265AC97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="5400" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="7640" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="1" r:id="rId1"/>
@@ -599,8 +599,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -958,9 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1099,59 +1098,59 @@
       <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="M2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="O2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="P2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Q2">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="R2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="S2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="T2">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="U2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="V2">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="W2">
-        <v>1.4E-5</v>
-      </c>
-      <c r="X2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Y2">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Z2">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="AA2">
-        <v>1.2E-5</v>
-      </c>
-      <c r="AB2">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="AC2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="AD2">
-        <v>-1.9000000000000001E-5</v>
+      <c r="M2" s="1">
+        <v>6.3418729999999999E-7</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2.1922960000000001E-6</v>
+      </c>
+      <c r="O2" s="1">
+        <v>9.7518019999999996E-7</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.317366E-6</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>5.2440239999999999E-6</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1.7574060000000001E-6</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2.0225140000000001E-6</v>
+      </c>
+      <c r="T2" s="1">
+        <v>8.3624669999999997E-6</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1.8607429999999999E-6</v>
+      </c>
+      <c r="V2" s="1">
+        <v>2.7868359999999999E-6</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1.4333620000000001E-5</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1.872389E-6</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>3.639121E-6</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1.8896890000000001E-5</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1.1981049999999999E-5</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>4.8431439999999998E-6</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1.981806E-5</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>-1.8767040000000001E-5</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -1193,59 +1192,59 @@
       <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="M3">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="N3">
-        <v>4.1E-5</v>
-      </c>
-      <c r="O3">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="P3">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Q3">
-        <v>9.6000000000000002E-5</v>
-      </c>
-      <c r="R3">
-        <v>6.7000000000000002E-5</v>
-      </c>
-      <c r="S3">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="T3">
-        <v>1.4799999999999999E-4</v>
-      </c>
-      <c r="U3">
-        <v>6.8999999999999997E-5</v>
-      </c>
-      <c r="V3">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="W3">
-        <v>1.63E-4</v>
-      </c>
-      <c r="X3">
-        <v>7.6000000000000004E-5</v>
-      </c>
-      <c r="Y3">
-        <v>1.1E-5</v>
-      </c>
-      <c r="Z3">
-        <v>2.1000000000000001E-4</v>
-      </c>
-      <c r="AA3">
-        <v>4.4999999999999999E-4</v>
-      </c>
-      <c r="AB3">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="AC3">
-        <v>2.0599999999999999E-4</v>
-      </c>
-      <c r="AD3">
-        <v>3.9999999999999998E-6</v>
+      <c r="M3" s="1">
+        <v>2.1922960000000001E-6</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4.0837419999999998E-5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3.964077E-5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>4.4564630000000001E-6</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>9.5818429999999999E-5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>6.703561E-5</v>
+      </c>
+      <c r="S3" s="1">
+        <v>6.5272769999999997E-6</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1.4774690000000001E-4</v>
+      </c>
+      <c r="U3" s="1">
+        <v>6.8581739999999997E-5</v>
+      </c>
+      <c r="V3" s="1">
+        <v>8.6943650000000002E-6</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1.6302330000000001E-4</v>
+      </c>
+      <c r="X3" s="1">
+        <v>7.5703810000000006E-5</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1.112625E-5</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2.097635E-4</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>4.5017979999999999E-4</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1.8529470000000001E-5</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>2.061144E-4</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>4.3629009999999996E-6</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -1287,59 +1286,59 @@
       <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="M4">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N4">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="O4">
-        <v>4.8200000000000001E-4</v>
-      </c>
-      <c r="P4">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Q4">
-        <v>7.2000000000000002E-5</v>
-      </c>
-      <c r="R4">
-        <v>8.8400000000000002E-4</v>
-      </c>
-      <c r="S4">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="T4">
-        <v>9.2999999999999997E-5</v>
-      </c>
-      <c r="U4">
-        <v>1.1180000000000001E-3</v>
-      </c>
-      <c r="V4">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="W4">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="X4">
-        <v>1.253E-3</v>
-      </c>
-      <c r="Y4">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Z4">
-        <v>9.7999999999999997E-5</v>
-      </c>
-      <c r="AA4">
-        <v>8.5099999999999998E-4</v>
-      </c>
-      <c r="AB4">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="AC4">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="AD4">
-        <v>-2.1770000000000001E-3</v>
+      <c r="M4" s="1">
+        <v>9.7518019999999996E-7</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3.964077E-5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4.8150500000000002E-4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2.0522579999999999E-6</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>7.1986890000000006E-5</v>
+      </c>
+      <c r="R4" s="1">
+        <v>8.842063E-4</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3.340723E-6</v>
+      </c>
+      <c r="T4" s="1">
+        <v>9.2852179999999997E-5</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1.117757E-3</v>
+      </c>
+      <c r="V4" s="1">
+        <v>3.5261879999999999E-6</v>
+      </c>
+      <c r="W4" s="1">
+        <v>4.7930289999999997E-5</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1.253192E-3</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1.757564E-6</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>9.8031929999999994E-5</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>8.5055669999999995E-4</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>2.5767389999999998E-6</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>8.0256319999999994E-5</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>-2.1774569999999998E-3</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -1381,59 +1380,59 @@
       <c r="L5" t="s">
         <v>26</v>
       </c>
-      <c r="M5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N5">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="O5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P5">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="Q5">
-        <v>1.1E-5</v>
-      </c>
-      <c r="R5">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="S5">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="T5">
-        <v>1.7E-5</v>
-      </c>
-      <c r="U5">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="V5">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="W5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="X5">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Y5">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="Z5">
-        <v>3.8999999999999999E-5</v>
-      </c>
-      <c r="AA5">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="AB5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AC5">
-        <v>4.1E-5</v>
-      </c>
-      <c r="AD5">
-        <v>-5.5999999999999999E-5</v>
+      <c r="M5" s="1">
+        <v>1.317366E-6</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.4564630000000001E-6</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.0522579999999999E-6</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2.7639119999999998E-6</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.0756080000000001E-5</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3.663678E-6</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4.2983150000000002E-6</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1.7229889999999998E-5</v>
+      </c>
+      <c r="U5" s="1">
+        <v>3.9866409999999997E-6</v>
+      </c>
+      <c r="V5" s="1">
+        <v>5.9583089999999998E-6</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3.019106E-5</v>
+      </c>
+      <c r="X5" s="1">
+        <v>4.0949289999999997E-6</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>7.758587E-6</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>3.9144460000000002E-5</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1.9406640000000001E-5</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1.022777E-5</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>4.0860730000000002E-5</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>-5.5875190000000003E-5</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -1475,59 +1474,59 @@
       <c r="L6" t="s">
         <v>26</v>
       </c>
-      <c r="M6">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="N6">
-        <v>9.6000000000000002E-5</v>
-      </c>
-      <c r="O6">
-        <v>7.2000000000000002E-5</v>
-      </c>
-      <c r="P6">
-        <v>1.1E-5</v>
-      </c>
-      <c r="Q6">
-        <v>2.3499999999999999E-4</v>
-      </c>
-      <c r="R6">
-        <v>1.2E-4</v>
-      </c>
-      <c r="S6">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="T6">
-        <v>3.7199999999999999E-4</v>
-      </c>
-      <c r="U6">
-        <v>1.15E-4</v>
-      </c>
-      <c r="V6">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="W6">
-        <v>4.0999999999999999E-4</v>
-      </c>
-      <c r="X6">
-        <v>1.2899999999999999E-4</v>
-      </c>
-      <c r="Y6">
-        <v>2.8E-5</v>
-      </c>
-      <c r="Z6">
-        <v>5.1500000000000005E-4</v>
-      </c>
-      <c r="AA6">
-        <v>1.1100000000000001E-3</v>
-      </c>
-      <c r="AB6">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="AC6">
-        <v>5.1000000000000004E-4</v>
-      </c>
-      <c r="AD6">
-        <v>1.5799999999999999E-4</v>
+      <c r="M6" s="1">
+        <v>5.2440239999999999E-6</v>
+      </c>
+      <c r="N6" s="1">
+        <v>9.5818429999999999E-5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>7.1986890000000006E-5</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.0756080000000001E-5</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2.353534E-4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1.196234E-4</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1.5951780000000001E-5</v>
+      </c>
+      <c r="T6" s="1">
+        <v>3.7206700000000001E-4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1.152888E-4</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2.1420829999999999E-5</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4.1039679999999999E-4</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1.286933E-4</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>2.7637419999999999E-5</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>5.1532550000000002E-4</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1.109592E-3</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>4.7255539999999998E-5</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>5.1016050000000002E-4</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>1.5753880000000001E-4</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -1569,59 +1568,59 @@
       <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="M7">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="N7">
-        <v>6.7000000000000002E-5</v>
-      </c>
-      <c r="O7">
-        <v>8.8400000000000002E-4</v>
-      </c>
-      <c r="P7">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Q7">
-        <v>1.2E-4</v>
-      </c>
-      <c r="R7">
-        <v>1.639E-3</v>
-      </c>
-      <c r="S7">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="T7">
-        <v>1.5200000000000001E-4</v>
-      </c>
-      <c r="U7">
-        <v>2.0929999999999998E-3</v>
-      </c>
-      <c r="V7">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="W7">
-        <v>6.7000000000000002E-5</v>
-      </c>
-      <c r="X7">
-        <v>2.366E-3</v>
-      </c>
-      <c r="Y7">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Z7">
-        <v>1.56E-4</v>
-      </c>
-      <c r="AA7">
-        <v>1.4319999999999999E-3</v>
-      </c>
-      <c r="AB7">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="AC7">
-        <v>1.3100000000000001E-4</v>
-      </c>
-      <c r="AD7">
-        <v>-3.9449999999999997E-3</v>
+      <c r="M7" s="1">
+        <v>1.7574060000000001E-6</v>
+      </c>
+      <c r="N7" s="1">
+        <v>6.703561E-5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>8.842063E-4</v>
+      </c>
+      <c r="P7" s="1">
+        <v>3.663678E-6</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.196234E-4</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1.6392139999999999E-3</v>
+      </c>
+      <c r="S7" s="1">
+        <v>5.8241239999999997E-6</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1.5208060000000001E-4</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2.0929939999999999E-3</v>
+      </c>
+      <c r="V7" s="1">
+        <v>6.248495E-6</v>
+      </c>
+      <c r="W7" s="1">
+        <v>6.7150639999999996E-5</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2.3656689999999999E-3</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>3.8582050000000001E-6</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1.5579339999999999E-4</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1.4319249999999999E-3</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>5.1466110000000001E-6</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1.3130560000000001E-4</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>-3.9452310000000004E-3</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -1663,59 +1662,59 @@
       <c r="L8" t="s">
         <v>26</v>
       </c>
-      <c r="M8">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="N8">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="O8">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P8">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Q8">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="R8">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="S8">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="T8">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="U8">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="V8">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="W8">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="X8">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="Y8">
-        <v>1.2E-5</v>
-      </c>
-      <c r="Z8">
-        <v>5.8999999999999998E-5</v>
-      </c>
-      <c r="AA8">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="AB8">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="AC8">
-        <v>6.0999999999999999E-5</v>
-      </c>
-      <c r="AD8">
-        <v>-1.4100000000000001E-4</v>
+      <c r="M8" s="1">
+        <v>2.0225140000000001E-6</v>
+      </c>
+      <c r="N8" s="1">
+        <v>6.5272769999999997E-6</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3.340723E-6</v>
+      </c>
+      <c r="P8" s="1">
+        <v>4.2983150000000002E-6</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1.5951780000000001E-5</v>
+      </c>
+      <c r="R8" s="1">
+        <v>5.8241239999999997E-6</v>
+      </c>
+      <c r="S8" s="1">
+        <v>6.8399490000000002E-6</v>
+      </c>
+      <c r="T8" s="1">
+        <v>2.5689010000000002E-5</v>
+      </c>
+      <c r="U8" s="1">
+        <v>6.5163889999999999E-6</v>
+      </c>
+      <c r="V8" s="1">
+        <v>9.5724009999999994E-6</v>
+      </c>
+      <c r="W8" s="1">
+        <v>4.6960409999999999E-5</v>
+      </c>
+      <c r="X8" s="1">
+        <v>6.8275899999999998E-6</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1.236091E-5</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>5.8859330000000003E-5</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>1.341678E-5</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1.5972460000000001E-5</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>6.0681019999999999E-5</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>-1.407867E-4</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -1757,59 +1756,59 @@
       <c r="L9" t="s">
         <v>26</v>
       </c>
-      <c r="M9">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="N9">
-        <v>1.4799999999999999E-4</v>
-      </c>
-      <c r="O9">
-        <v>9.2999999999999997E-5</v>
-      </c>
-      <c r="P9">
-        <v>1.7E-5</v>
-      </c>
-      <c r="Q9">
-        <v>3.7199999999999999E-4</v>
-      </c>
-      <c r="R9">
-        <v>1.5200000000000001E-4</v>
-      </c>
-      <c r="S9">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="T9">
-        <v>6.0499999999999996E-4</v>
-      </c>
-      <c r="U9">
-        <v>1.3999999999999999E-4</v>
-      </c>
-      <c r="V9">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="W9">
-        <v>6.9099999999999999E-4</v>
-      </c>
-      <c r="X9">
-        <v>1.6200000000000001E-4</v>
-      </c>
-      <c r="Y9">
-        <v>4.6E-5</v>
-      </c>
-      <c r="Z9">
-        <v>8.6700000000000004E-4</v>
-      </c>
-      <c r="AA9">
-        <v>1.8990000000000001E-3</v>
-      </c>
-      <c r="AB9">
-        <v>7.8999999999999996E-5</v>
-      </c>
-      <c r="AC9">
-        <v>8.7399999999999999E-4</v>
-      </c>
-      <c r="AD9">
-        <v>7.9299999999999998E-4</v>
+      <c r="M9" s="1">
+        <v>8.3624669999999997E-6</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.4774690000000001E-4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>9.2852179999999997E-5</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.7229889999999998E-5</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3.7206700000000001E-4</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1.5208060000000001E-4</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2.5689010000000002E-5</v>
+      </c>
+      <c r="T9" s="1">
+        <v>6.0534990000000002E-4</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1.3955169999999999E-4</v>
+      </c>
+      <c r="V9" s="1">
+        <v>3.4908859999999998E-5</v>
+      </c>
+      <c r="W9" s="1">
+        <v>6.909587E-4</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1.616779E-4</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>4.5917259999999999E-5</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>8.6736620000000002E-4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1.8990509999999999E-3</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>7.8764750000000005E-5</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>8.7392259999999995E-4</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>7.9322590000000003E-4</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -1851,59 +1850,59 @@
       <c r="L10" t="s">
         <v>26</v>
       </c>
-      <c r="M10">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="N10">
-        <v>6.8999999999999997E-5</v>
-      </c>
-      <c r="O10">
-        <v>1.1180000000000001E-3</v>
-      </c>
-      <c r="P10">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Q10">
-        <v>1.15E-4</v>
-      </c>
-      <c r="R10">
-        <v>2.0929999999999998E-3</v>
-      </c>
-      <c r="S10">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="T10">
-        <v>1.3999999999999999E-4</v>
-      </c>
-      <c r="U10">
-        <v>2.8969999999999998E-3</v>
-      </c>
-      <c r="V10">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="W10">
-        <v>4.1999999999999998E-5</v>
-      </c>
-      <c r="X10">
-        <v>3.1700000000000001E-3</v>
-      </c>
-      <c r="Y10">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="Z10">
-        <v>1.36E-4</v>
-      </c>
-      <c r="AA10">
-        <v>7.6199999999999998E-4</v>
-      </c>
-      <c r="AB10">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AC10">
-        <v>1.06E-4</v>
-      </c>
-      <c r="AD10">
-        <v>-6.3670000000000003E-3</v>
+      <c r="M10" s="1">
+        <v>1.8607429999999999E-6</v>
+      </c>
+      <c r="N10" s="1">
+        <v>6.8581739999999997E-5</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.117757E-3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3.9866409999999997E-6</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.152888E-4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>2.0929939999999999E-3</v>
+      </c>
+      <c r="S10" s="1">
+        <v>6.5163889999999999E-6</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1.3955169999999999E-4</v>
+      </c>
+      <c r="U10" s="1">
+        <v>2.8974750000000001E-3</v>
+      </c>
+      <c r="V10" s="1">
+        <v>6.7442429999999999E-6</v>
+      </c>
+      <c r="W10" s="1">
+        <v>4.1670220000000001E-5</v>
+      </c>
+      <c r="X10" s="1">
+        <v>3.1703790000000001E-3</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>3.4518149999999999E-6</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1.3644939999999999E-4</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>7.6193690000000004E-4</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>4.4286929999999996E-6</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>1.064276E-4</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>-6.3674420000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -1945,59 +1944,59 @@
       <c r="L11" t="s">
         <v>26</v>
       </c>
-      <c r="M11">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="N11">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="O11">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="P11">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="Q11">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="R11">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="S11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="T11">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="U11">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="V11">
-        <v>1.4E-5</v>
-      </c>
-      <c r="W11">
-        <v>6.6000000000000005E-5</v>
-      </c>
-      <c r="X11">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="Y11">
-        <v>1.8E-5</v>
-      </c>
-      <c r="Z11">
-        <v>8.2000000000000001E-5</v>
-      </c>
-      <c r="AA11">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="AB11">
-        <v>2.3E-5</v>
-      </c>
-      <c r="AC11">
-        <v>8.7000000000000001E-5</v>
-      </c>
-      <c r="AD11">
-        <v>-1.1900000000000001E-4</v>
+      <c r="M11" s="1">
+        <v>2.7868359999999999E-6</v>
+      </c>
+      <c r="N11" s="1">
+        <v>8.6943650000000002E-6</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3.5261879999999999E-6</v>
+      </c>
+      <c r="P11" s="1">
+        <v>5.9583089999999998E-6</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2.1420829999999999E-5</v>
+      </c>
+      <c r="R11" s="1">
+        <v>6.248495E-6</v>
+      </c>
+      <c r="S11" s="1">
+        <v>9.5724009999999994E-6</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3.4908859999999998E-5</v>
+      </c>
+      <c r="U11" s="1">
+        <v>6.7442429999999999E-6</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1.365521E-5</v>
+      </c>
+      <c r="W11" s="1">
+        <v>6.5817009999999998E-5</v>
+      </c>
+      <c r="X11" s="1">
+        <v>7.4831499999999997E-6</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1.8060070000000001E-5</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>8.2441839999999997E-5</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>3.0175180000000001E-5</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>2.31791E-5</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>8.6558760000000006E-5</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>-1.1866119999999999E-4</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -2039,59 +2038,59 @@
       <c r="L12" t="s">
         <v>26</v>
       </c>
-      <c r="M12">
-        <v>1.4E-5</v>
-      </c>
-      <c r="N12">
-        <v>1.63E-4</v>
-      </c>
-      <c r="O12">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="P12">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="Q12">
-        <v>4.0999999999999999E-4</v>
-      </c>
-      <c r="R12">
-        <v>6.7000000000000002E-5</v>
-      </c>
-      <c r="S12">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="T12">
-        <v>6.9099999999999999E-4</v>
-      </c>
-      <c r="U12">
-        <v>4.1999999999999998E-5</v>
-      </c>
-      <c r="V12">
-        <v>6.6000000000000005E-5</v>
-      </c>
-      <c r="W12">
-        <v>1.3799999999999999E-3</v>
-      </c>
-      <c r="X12">
-        <v>3.8999999999999999E-5</v>
-      </c>
-      <c r="Y12">
-        <v>8.7000000000000001E-5</v>
-      </c>
-      <c r="Z12">
-        <v>1.5460000000000001E-3</v>
-      </c>
-      <c r="AA12">
-        <v>2.294E-3</v>
-      </c>
-      <c r="AB12">
-        <v>1.2300000000000001E-4</v>
-      </c>
-      <c r="AC12">
-        <v>1.588E-3</v>
-      </c>
-      <c r="AD12">
-        <v>1.7409999999999999E-3</v>
+      <c r="M12" s="1">
+        <v>1.4333620000000001E-5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.6302330000000001E-4</v>
+      </c>
+      <c r="O12" s="1">
+        <v>4.7930289999999997E-5</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3.019106E-5</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>4.1039679999999999E-4</v>
+      </c>
+      <c r="R12" s="1">
+        <v>6.7150639999999996E-5</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4.6960409999999999E-5</v>
+      </c>
+      <c r="T12" s="1">
+        <v>6.909587E-4</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4.1670220000000001E-5</v>
+      </c>
+      <c r="V12" s="1">
+        <v>6.5817009999999998E-5</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1.3804780000000001E-3</v>
+      </c>
+      <c r="X12" s="1">
+        <v>3.9452090000000001E-5</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>8.714084E-5</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1.5463300000000001E-3</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>2.2938960000000001E-3</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1.2271849999999999E-4</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1.587696E-3</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1.7408199999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -2133,59 +2132,59 @@
       <c r="L13" t="s">
         <v>26</v>
       </c>
-      <c r="M13">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="N13">
-        <v>7.6000000000000004E-5</v>
-      </c>
-      <c r="O13">
-        <v>1.253E-3</v>
-      </c>
-      <c r="P13">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Q13">
-        <v>1.2899999999999999E-4</v>
-      </c>
-      <c r="R13">
-        <v>2.366E-3</v>
-      </c>
-      <c r="S13">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="T13">
-        <v>1.6200000000000001E-4</v>
-      </c>
-      <c r="U13">
-        <v>3.1700000000000001E-3</v>
-      </c>
-      <c r="V13">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="W13">
-        <v>3.8999999999999999E-5</v>
-      </c>
-      <c r="X13">
-        <v>3.8630000000000001E-3</v>
-      </c>
-      <c r="Y13">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="Z13">
-        <v>1.6200000000000001E-4</v>
-      </c>
-      <c r="AA13">
-        <v>1.8029999999999999E-3</v>
-      </c>
-      <c r="AB13">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="AC13">
-        <v>1.45E-4</v>
-      </c>
-      <c r="AD13">
-        <v>-6.339E-3</v>
+      <c r="M13" s="1">
+        <v>1.872389E-6</v>
+      </c>
+      <c r="N13" s="1">
+        <v>7.5703810000000006E-5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.253192E-3</v>
+      </c>
+      <c r="P13" s="1">
+        <v>4.0949289999999997E-6</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1.286933E-4</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2.3656689999999999E-3</v>
+      </c>
+      <c r="S13" s="1">
+        <v>6.8275899999999998E-6</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1.616779E-4</v>
+      </c>
+      <c r="U13" s="1">
+        <v>3.1703790000000001E-3</v>
+      </c>
+      <c r="V13" s="1">
+        <v>7.4831499999999997E-6</v>
+      </c>
+      <c r="W13" s="1">
+        <v>3.9452090000000001E-5</v>
+      </c>
+      <c r="X13" s="1">
+        <v>3.8634099999999998E-3</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>4.5649189999999996E-6</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1.6159219999999999E-4</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1.8028160000000001E-3</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>4.8553199999999996E-6</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1.4452390000000001E-4</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>-6.3391419999999999E-3</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -2227,59 +2226,59 @@
       <c r="L14" t="s">
         <v>26</v>
       </c>
-      <c r="M14">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="N14">
-        <v>1.1E-5</v>
-      </c>
-      <c r="O14">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="Q14">
-        <v>2.8E-5</v>
-      </c>
-      <c r="R14">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="S14">
-        <v>1.2E-5</v>
-      </c>
-      <c r="T14">
-        <v>4.6E-5</v>
-      </c>
-      <c r="U14">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="V14">
-        <v>1.8E-5</v>
-      </c>
-      <c r="W14">
-        <v>8.7000000000000001E-5</v>
-      </c>
-      <c r="X14">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="Y14">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="Z14">
-        <v>1.1400000000000001E-4</v>
-      </c>
-      <c r="AA14">
-        <v>1.01E-4</v>
-      </c>
-      <c r="AB14">
-        <v>3.3000000000000003E-5</v>
-      </c>
-      <c r="AC14">
-        <v>1.26E-4</v>
-      </c>
-      <c r="AD14">
-        <v>1.37E-4</v>
+      <c r="M14" s="1">
+        <v>3.639121E-6</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.112625E-5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1.757564E-6</v>
+      </c>
+      <c r="P14" s="1">
+        <v>7.758587E-6</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2.7637419999999999E-5</v>
+      </c>
+      <c r="R14" s="1">
+        <v>3.8582050000000001E-6</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1.236091E-5</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4.5917259999999999E-5</v>
+      </c>
+      <c r="U14" s="1">
+        <v>3.4518149999999999E-6</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1.8060070000000001E-5</v>
+      </c>
+      <c r="W14" s="1">
+        <v>8.714084E-5</v>
+      </c>
+      <c r="X14" s="1">
+        <v>4.5649189999999996E-6</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>2.5342470000000001E-5</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>1.1402420000000001E-4</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>1.014074E-4</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>3.3447539999999997E-5</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1.258128E-4</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>1.3684710000000001E-4</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -2321,59 +2320,59 @@
       <c r="L15" t="s">
         <v>26</v>
       </c>
-      <c r="M15">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="N15">
-        <v>2.1000000000000001E-4</v>
-      </c>
-      <c r="O15">
-        <v>9.7999999999999997E-5</v>
-      </c>
-      <c r="P15">
-        <v>3.8999999999999999E-5</v>
-      </c>
-      <c r="Q15">
-        <v>5.1500000000000005E-4</v>
-      </c>
-      <c r="R15">
-        <v>1.56E-4</v>
-      </c>
-      <c r="S15">
-        <v>5.8999999999999998E-5</v>
-      </c>
-      <c r="T15">
-        <v>8.6700000000000004E-4</v>
-      </c>
-      <c r="U15">
-        <v>1.36E-4</v>
-      </c>
-      <c r="V15">
-        <v>8.2000000000000001E-5</v>
-      </c>
-      <c r="W15">
-        <v>1.5460000000000001E-3</v>
-      </c>
-      <c r="X15">
-        <v>1.6200000000000001E-4</v>
-      </c>
-      <c r="Y15">
-        <v>1.1400000000000001E-4</v>
-      </c>
-      <c r="Z15">
-        <v>2.085E-3</v>
-      </c>
-      <c r="AA15">
-        <v>3.1879999999999999E-3</v>
-      </c>
-      <c r="AB15">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="AC15">
-        <v>2.2520000000000001E-3</v>
-      </c>
-      <c r="AD15">
-        <v>2.313E-3</v>
+      <c r="M15" s="1">
+        <v>1.8896890000000001E-5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2.097635E-4</v>
+      </c>
+      <c r="O15" s="1">
+        <v>9.8031929999999994E-5</v>
+      </c>
+      <c r="P15" s="1">
+        <v>3.9144460000000002E-5</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>5.1532550000000002E-4</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1.5579339999999999E-4</v>
+      </c>
+      <c r="S15" s="1">
+        <v>5.8859330000000003E-5</v>
+      </c>
+      <c r="T15" s="1">
+        <v>8.6736620000000002E-4</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1.3644939999999999E-4</v>
+      </c>
+      <c r="V15" s="1">
+        <v>8.2441839999999997E-5</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1.5463300000000001E-3</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1.6159219999999999E-4</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1.1402420000000001E-4</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>2.0849509999999998E-3</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>3.1881409999999998E-3</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1.7670319999999999E-4</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>2.2520560000000001E-3</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>2.3129100000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -2415,59 +2414,59 @@
       <c r="L16" t="s">
         <v>26</v>
       </c>
-      <c r="M16">
-        <v>1.2E-5</v>
-      </c>
-      <c r="N16">
-        <v>4.4999999999999999E-4</v>
-      </c>
-      <c r="O16">
-        <v>8.5099999999999998E-4</v>
-      </c>
-      <c r="P16">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="Q16">
-        <v>1.1100000000000001E-3</v>
-      </c>
-      <c r="R16">
-        <v>1.4319999999999999E-3</v>
-      </c>
-      <c r="S16">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="T16">
-        <v>1.8990000000000001E-3</v>
-      </c>
-      <c r="U16">
-        <v>7.6199999999999998E-4</v>
-      </c>
-      <c r="V16">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="W16">
-        <v>2.294E-3</v>
-      </c>
-      <c r="X16">
-        <v>1.8029999999999999E-3</v>
-      </c>
-      <c r="Y16">
-        <v>1.01E-4</v>
-      </c>
-      <c r="Z16">
-        <v>3.1879999999999999E-3</v>
-      </c>
-      <c r="AA16">
-        <v>6.7242999999999997E-2</v>
-      </c>
-      <c r="AB16">
-        <v>7.2999999999999999E-5</v>
-      </c>
-      <c r="AC16">
-        <v>3.686E-3</v>
-      </c>
-      <c r="AD16">
-        <v>0.113382</v>
+      <c r="M16" s="1">
+        <v>1.1981049999999999E-5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4.5017979999999999E-4</v>
+      </c>
+      <c r="O16" s="1">
+        <v>8.5055669999999995E-4</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.9406640000000001E-5</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1.109592E-3</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1.4319249999999999E-3</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1.341678E-5</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1.8990509999999999E-3</v>
+      </c>
+      <c r="U16" s="1">
+        <v>7.6193690000000004E-4</v>
+      </c>
+      <c r="V16" s="1">
+        <v>3.0175180000000001E-5</v>
+      </c>
+      <c r="W16" s="1">
+        <v>2.2938960000000001E-3</v>
+      </c>
+      <c r="X16" s="1">
+        <v>1.8028160000000001E-3</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>1.014074E-4</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>3.1881409999999998E-3</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>6.7243479999999994E-2</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>7.2952430000000005E-5</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>3.6858479999999998E-3</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0.11338239999999999</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
@@ -2509,59 +2508,59 @@
       <c r="L17" t="s">
         <v>26</v>
       </c>
-      <c r="M17">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="N17">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="O17">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P17">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Q17">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="R17">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="S17">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="T17">
-        <v>7.8999999999999996E-5</v>
-      </c>
-      <c r="U17">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="V17">
-        <v>2.3E-5</v>
-      </c>
-      <c r="W17">
-        <v>1.2300000000000001E-4</v>
-      </c>
-      <c r="X17">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="Y17">
-        <v>3.3000000000000003E-5</v>
-      </c>
-      <c r="Z17">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="AA17">
-        <v>7.2999999999999999E-5</v>
-      </c>
-      <c r="AB17">
-        <v>6.0999999999999999E-5</v>
-      </c>
-      <c r="AC17">
-        <v>1.9900000000000001E-4</v>
-      </c>
-      <c r="AD17">
-        <v>-2.2000000000000001E-4</v>
+      <c r="M17" s="1">
+        <v>4.8431439999999998E-6</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1.8529470000000001E-5</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2.5767389999999998E-6</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1.022777E-5</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>4.7255539999999998E-5</v>
+      </c>
+      <c r="R17" s="1">
+        <v>5.1466110000000001E-6</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1.5972460000000001E-5</v>
+      </c>
+      <c r="T17" s="1">
+        <v>7.8764750000000005E-5</v>
+      </c>
+      <c r="U17" s="1">
+        <v>4.4286929999999996E-6</v>
+      </c>
+      <c r="V17" s="1">
+        <v>2.31791E-5</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1.2271849999999999E-4</v>
+      </c>
+      <c r="X17" s="1">
+        <v>4.8553199999999996E-6</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>3.3447539999999997E-5</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1.7670319999999999E-4</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>7.2952430000000005E-5</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>6.0571279999999999E-5</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>1.9904370000000001E-4</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>-2.1959200000000001E-4</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
@@ -2603,59 +2602,59 @@
       <c r="L18" t="s">
         <v>26</v>
       </c>
-      <c r="M18">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="N18">
-        <v>2.0599999999999999E-4</v>
-      </c>
-      <c r="O18">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="P18">
-        <v>4.1E-5</v>
-      </c>
-      <c r="Q18">
-        <v>5.1000000000000004E-4</v>
-      </c>
-      <c r="R18">
-        <v>1.3100000000000001E-4</v>
-      </c>
-      <c r="S18">
-        <v>6.0999999999999999E-5</v>
-      </c>
-      <c r="T18">
-        <v>8.7399999999999999E-4</v>
-      </c>
-      <c r="U18">
-        <v>1.06E-4</v>
-      </c>
-      <c r="V18">
-        <v>8.7000000000000001E-5</v>
-      </c>
-      <c r="W18">
-        <v>1.588E-3</v>
-      </c>
-      <c r="X18">
-        <v>1.45E-4</v>
-      </c>
-      <c r="Y18">
-        <v>1.26E-4</v>
-      </c>
-      <c r="Z18">
-        <v>2.2520000000000001E-3</v>
-      </c>
-      <c r="AA18">
-        <v>3.686E-3</v>
-      </c>
-      <c r="AB18">
-        <v>1.9900000000000001E-4</v>
-      </c>
-      <c r="AC18">
-        <v>2.617E-3</v>
-      </c>
-      <c r="AD18">
-        <v>4.3740000000000003E-3</v>
+      <c r="M18" s="1">
+        <v>1.981806E-5</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2.061144E-4</v>
+      </c>
+      <c r="O18" s="1">
+        <v>8.0256319999999994E-5</v>
+      </c>
+      <c r="P18" s="1">
+        <v>4.0860730000000002E-5</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>5.1016050000000002E-4</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1.3130560000000001E-4</v>
+      </c>
+      <c r="S18" s="1">
+        <v>6.0681019999999999E-5</v>
+      </c>
+      <c r="T18" s="1">
+        <v>8.7392259999999995E-4</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1.064276E-4</v>
+      </c>
+      <c r="V18" s="1">
+        <v>8.6558760000000006E-5</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1.587696E-3</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1.4452390000000001E-4</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1.258128E-4</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>2.2520560000000001E-3</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>3.6858479999999998E-3</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1.9904370000000001E-4</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>2.6169779999999998E-3</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>4.3743640000000004E-3</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
@@ -2697,59 +2696,59 @@
       <c r="L19" t="s">
         <v>26</v>
       </c>
-      <c r="M19">
-        <v>-1.9000000000000001E-5</v>
-      </c>
-      <c r="N19">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="O19">
-        <v>-2.1770000000000001E-3</v>
-      </c>
-      <c r="P19">
-        <v>-5.5999999999999999E-5</v>
-      </c>
-      <c r="Q19">
-        <v>1.5799999999999999E-4</v>
-      </c>
-      <c r="R19">
-        <v>-3.9449999999999997E-3</v>
-      </c>
-      <c r="S19">
-        <v>-1.4100000000000001E-4</v>
-      </c>
-      <c r="T19">
-        <v>7.9299999999999998E-4</v>
-      </c>
-      <c r="U19">
-        <v>-6.3670000000000003E-3</v>
-      </c>
-      <c r="V19">
-        <v>-1.1900000000000001E-4</v>
-      </c>
-      <c r="W19">
-        <v>1.7409999999999999E-3</v>
-      </c>
-      <c r="X19">
-        <v>-6.339E-3</v>
-      </c>
-      <c r="Y19">
-        <v>1.37E-4</v>
-      </c>
-      <c r="Z19">
-        <v>2.313E-3</v>
-      </c>
-      <c r="AA19">
-        <v>0.113382</v>
-      </c>
-      <c r="AB19">
-        <v>-2.2000000000000001E-4</v>
-      </c>
-      <c r="AC19">
-        <v>4.3740000000000003E-3</v>
-      </c>
-      <c r="AD19">
-        <v>0.31539600000000001</v>
+      <c r="M19" s="1">
+        <v>-1.8767040000000001E-5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>4.3629009999999996E-6</v>
+      </c>
+      <c r="O19" s="1">
+        <v>-2.1774569999999998E-3</v>
+      </c>
+      <c r="P19" s="1">
+        <v>-5.5875190000000003E-5</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1.5753880000000001E-4</v>
+      </c>
+      <c r="R19" s="1">
+        <v>-3.9452310000000004E-3</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-1.407867E-4</v>
+      </c>
+      <c r="T19" s="1">
+        <v>7.9322590000000003E-4</v>
+      </c>
+      <c r="U19" s="1">
+        <v>-6.3674420000000001E-3</v>
+      </c>
+      <c r="V19" s="1">
+        <v>-1.1866119999999999E-4</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1.7408199999999999E-3</v>
+      </c>
+      <c r="X19" s="1">
+        <v>-6.3391419999999999E-3</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1.3684710000000001E-4</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>2.3129100000000001E-3</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0.11338239999999999</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>-2.1959200000000001E-4</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>4.3743640000000004E-3</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0.3153958</v>
       </c>
     </row>
   </sheetData>
